--- a/outputs-r202/test-f__Paludibacteraceae.xlsx
+++ b/outputs-r202/test-f__Paludibacteraceae.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="43">
   <si>
     <t>Row</t>
   </si>
@@ -163,7 +163,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -173,14 +173,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -218,1496 +222,1496 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="3" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.2204460492450126e-14</v>
+        <v>2.2204460492495514e-14</v>
       </c>
       <c r="C2">
-        <v>2.2204460492450126e-14</v>
+        <v>2.2204460492495514e-14</v>
       </c>
       <c r="D2">
-        <v>2.2204460492450126e-14</v>
+        <v>2.2204460492495514e-14</v>
       </c>
       <c r="E2">
-        <v>2.2204460492450126e-14</v>
+        <v>2.2204460492495514e-14</v>
       </c>
       <c r="F2">
-        <v>2.2204460492450126e-14</v>
+        <v>2.2204460492495514e-14</v>
       </c>
       <c r="G2">
-        <v>2.2204460492450126e-14</v>
+        <v>2.2204460492495514e-14</v>
       </c>
       <c r="H2">
-        <v>2.2204460492450126e-14</v>
+        <v>2.2204460492495514e-14</v>
       </c>
       <c r="I2">
-        <v>4.6939731899240963e-11</v>
+        <v>6.0592455015238019e-12</v>
       </c>
       <c r="J2">
-        <v>0.99999999995266053</v>
+        <v>0.99999999999354117</v>
       </c>
       <c r="K2">
-        <v>2.2204460492450126e-14</v>
+        <v>2.2204460492495514e-14</v>
       </c>
       <c r="L2">
-        <v>2.2204460492450126e-14</v>
+        <v>2.2204460492495514e-14</v>
       </c>
       <c r="M2">
-        <v>2.2204460492450126e-14</v>
+        <v>2.2204460492495514e-14</v>
       </c>
       <c r="N2">
-        <v>2.2204460492450126e-14</v>
+        <v>2.2204460492495514e-14</v>
       </c>
       <c r="O2">
-        <v>2.2204460492450126e-14</v>
+        <v>2.2204460492495514e-14</v>
       </c>
       <c r="P2">
-        <v>2.2204460492450126e-14</v>
+        <v>2.2204460492495514e-14</v>
       </c>
       <c r="Q2">
-        <v>2.2204460492450126e-14</v>
+        <v>2.2204460492495514e-14</v>
       </c>
       <c r="R2">
-        <v>2.2204460492450126e-14</v>
+        <v>2.2204460492495514e-14</v>
       </c>
       <c r="S2">
-        <v>2.2204460492450126e-14</v>
+        <v>2.2204460492495514e-14</v>
       </c>
       <c r="T2">
-        <v>2.2204460492450126e-14</v>
+        <v>2.2204460492495514e-14</v>
       </c>
       <c r="U2">
-        <v>2.2204460492450126e-14</v>
+        <v>2.2204460492495514e-14</v>
       </c>
       <c r="V2">
         <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.220446049249375e-14</v>
+        <v>2.2204460492497161e-14</v>
       </c>
       <c r="C3">
-        <v>2.220446049249375e-14</v>
+        <v>2.2204460492497161e-14</v>
       </c>
       <c r="D3">
-        <v>2.220446049249375e-14</v>
+        <v>2.2204460492497161e-14</v>
       </c>
       <c r="E3">
-        <v>2.220446049249375e-14</v>
+        <v>2.2204460492497161e-14</v>
       </c>
       <c r="F3">
-        <v>2.220446049249375e-14</v>
+        <v>2.2204460492497161e-14</v>
       </c>
       <c r="G3">
-        <v>2.220446049249375e-14</v>
+        <v>2.2204460492497161e-14</v>
       </c>
       <c r="H3">
-        <v>2.220446049249375e-14</v>
+        <v>2.2204460492497161e-14</v>
       </c>
       <c r="I3">
-        <v>7.647282155693887e-12</v>
+        <v>4.5770028902932815e-12</v>
       </c>
       <c r="J3">
-        <v>0.99999999999195299</v>
+        <v>0.99999999999502343</v>
       </c>
       <c r="K3">
-        <v>2.220446049249375e-14</v>
+        <v>2.2204460492497161e-14</v>
       </c>
       <c r="L3">
-        <v>2.220446049249375e-14</v>
+        <v>2.2204460492497161e-14</v>
       </c>
       <c r="M3">
-        <v>2.220446049249375e-14</v>
+        <v>2.2204460492497161e-14</v>
       </c>
       <c r="N3">
-        <v>2.220446049249375e-14</v>
+        <v>2.2204460492497161e-14</v>
       </c>
       <c r="O3">
-        <v>2.220446049249375e-14</v>
+        <v>2.2204460492497161e-14</v>
       </c>
       <c r="P3">
-        <v>2.220446049249375e-14</v>
+        <v>2.2204460492497161e-14</v>
       </c>
       <c r="Q3">
-        <v>2.220446049249375e-14</v>
+        <v>2.2204460492497161e-14</v>
       </c>
       <c r="R3">
-        <v>2.220446049249375e-14</v>
+        <v>2.2204460492497161e-14</v>
       </c>
       <c r="S3">
-        <v>2.220446049249375e-14</v>
+        <v>2.2204460492497161e-14</v>
       </c>
       <c r="T3">
-        <v>2.220446049249375e-14</v>
+        <v>2.2204460492497161e-14</v>
       </c>
       <c r="U3">
-        <v>2.220446049249375e-14</v>
+        <v>2.2204460492497161e-14</v>
       </c>
       <c r="V3">
         <v>9</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2.2204460492493305e-14</v>
+        <v>2.2204460492496432e-14</v>
       </c>
       <c r="C4">
-        <v>2.2204460492493305e-14</v>
+        <v>2.2204460492496432e-14</v>
       </c>
       <c r="D4">
-        <v>2.2204460492493305e-14</v>
+        <v>2.2204460492496432e-14</v>
       </c>
       <c r="E4">
-        <v>2.2204460492493305e-14</v>
+        <v>2.2204460492496432e-14</v>
       </c>
       <c r="F4">
-        <v>2.2204460492493305e-14</v>
+        <v>2.2204460492496432e-14</v>
       </c>
       <c r="G4">
-        <v>2.2204460492493305e-14</v>
+        <v>2.2204460492496432e-14</v>
       </c>
       <c r="H4">
-        <v>2.2204460492493305e-14</v>
+        <v>2.2204460492496432e-14</v>
       </c>
       <c r="I4">
-        <v>8.0502691937393245e-12</v>
+        <v>5.2289732978832234e-12</v>
       </c>
       <c r="J4">
-        <v>0.99999999999154998</v>
+        <v>0.99999999999437128</v>
       </c>
       <c r="K4">
-        <v>2.2204460492493305e-14</v>
+        <v>2.2204460492496432e-14</v>
       </c>
       <c r="L4">
-        <v>2.2204460492493305e-14</v>
+        <v>2.2204460492496432e-14</v>
       </c>
       <c r="M4">
-        <v>2.2204460492493305e-14</v>
+        <v>2.2204460492496432e-14</v>
       </c>
       <c r="N4">
-        <v>2.2204460492493305e-14</v>
+        <v>2.2204460492496432e-14</v>
       </c>
       <c r="O4">
-        <v>2.2204460492493305e-14</v>
+        <v>2.2204460492496432e-14</v>
       </c>
       <c r="P4">
-        <v>2.2204460492493305e-14</v>
+        <v>2.2204460492496432e-14</v>
       </c>
       <c r="Q4">
-        <v>2.2204460492493305e-14</v>
+        <v>2.2204460492496432e-14</v>
       </c>
       <c r="R4">
-        <v>2.2204460492493305e-14</v>
+        <v>2.2204460492496432e-14</v>
       </c>
       <c r="S4">
-        <v>2.2204460492493305e-14</v>
+        <v>2.2204460492496432e-14</v>
       </c>
       <c r="T4">
-        <v>2.2204460492493305e-14</v>
+        <v>2.2204460492496432e-14</v>
       </c>
       <c r="U4">
-        <v>2.2204460492493305e-14</v>
+        <v>2.2204460492496432e-14</v>
       </c>
       <c r="V4">
         <v>9</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2.2204460492495835e-14</v>
+        <v>2.2204460492497142e-14</v>
       </c>
       <c r="C5">
-        <v>2.2204460492495835e-14</v>
+        <v>2.2204460492497142e-14</v>
       </c>
       <c r="D5">
-        <v>2.2204460492495835e-14</v>
+        <v>2.2204460492497142e-14</v>
       </c>
       <c r="E5">
-        <v>2.2204460492495835e-14</v>
+        <v>2.2204460492497142e-14</v>
       </c>
       <c r="F5">
-        <v>2.2204460492495835e-14</v>
+        <v>2.2204460492497142e-14</v>
       </c>
       <c r="G5">
-        <v>2.2204460492495835e-14</v>
+        <v>2.2204460492497142e-14</v>
       </c>
       <c r="H5">
-        <v>2.2204460492495835e-14</v>
+        <v>2.2204460492497142e-14</v>
       </c>
       <c r="I5">
-        <v>5.7703199640289973e-12</v>
+        <v>4.5952848406791691e-12</v>
       </c>
       <c r="J5">
-        <v>0.99999999999383005</v>
+        <v>0.99999999999500511</v>
       </c>
       <c r="K5">
-        <v>2.2204460492495835e-14</v>
+        <v>2.2204460492497142e-14</v>
       </c>
       <c r="L5">
-        <v>2.2204460492495835e-14</v>
+        <v>2.2204460492497142e-14</v>
       </c>
       <c r="M5">
-        <v>2.2204460492495835e-14</v>
+        <v>2.2204460492497142e-14</v>
       </c>
       <c r="N5">
-        <v>2.2204460492495835e-14</v>
+        <v>2.2204460492497142e-14</v>
       </c>
       <c r="O5">
-        <v>2.2204460492495835e-14</v>
+        <v>2.2204460492497142e-14</v>
       </c>
       <c r="P5">
-        <v>2.2204460492495835e-14</v>
+        <v>2.2204460492497142e-14</v>
       </c>
       <c r="Q5">
-        <v>2.2204460492495835e-14</v>
+        <v>2.2204460492497142e-14</v>
       </c>
       <c r="R5">
-        <v>2.2204460492495835e-14</v>
+        <v>2.2204460492497142e-14</v>
       </c>
       <c r="S5">
-        <v>2.2204460492495835e-14</v>
+        <v>2.2204460492497142e-14</v>
       </c>
       <c r="T5">
-        <v>2.2204460492495835e-14</v>
+        <v>2.2204460492497142e-14</v>
       </c>
       <c r="U5">
-        <v>2.2204460492495835e-14</v>
+        <v>2.2204460492497142e-14</v>
       </c>
       <c r="V5">
         <v>9</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2.2204460492493478e-14</v>
+        <v>2.2204460492500398e-14</v>
       </c>
       <c r="C6">
-        <v>2.2204460492493478e-14</v>
+        <v>2.2204460492500398e-14</v>
       </c>
       <c r="D6">
-        <v>2.2204460492493478e-14</v>
+        <v>2.2204460492500398e-14</v>
       </c>
       <c r="E6">
-        <v>2.2204460492493478e-14</v>
+        <v>2.2204460492500398e-14</v>
       </c>
       <c r="F6">
-        <v>2.2204460492493478e-14</v>
+        <v>2.2204460492500398e-14</v>
       </c>
       <c r="G6">
-        <v>2.2204460492493478e-14</v>
+        <v>2.2204460492500398e-14</v>
       </c>
       <c r="H6">
-        <v>2.2204460492493478e-14</v>
+        <v>2.2204460492500398e-14</v>
       </c>
       <c r="I6">
-        <v>7.8895201195443316e-12</v>
+        <v>1.6552242624938397e-12</v>
       </c>
       <c r="J6">
-        <v>0.99999999999171074</v>
+        <v>0.99999999999794498</v>
       </c>
       <c r="K6">
-        <v>2.2204460492493478e-14</v>
+        <v>2.2204460492500398e-14</v>
       </c>
       <c r="L6">
-        <v>2.2204460492493478e-14</v>
+        <v>2.2204460492500398e-14</v>
       </c>
       <c r="M6">
-        <v>2.2204460492493478e-14</v>
+        <v>2.2204460492500398e-14</v>
       </c>
       <c r="N6">
-        <v>2.2204460492493478e-14</v>
+        <v>2.2204460492500398e-14</v>
       </c>
       <c r="O6">
-        <v>2.2204460492493478e-14</v>
+        <v>2.2204460492500398e-14</v>
       </c>
       <c r="P6">
-        <v>2.2204460492493478e-14</v>
+        <v>2.2204460492500398e-14</v>
       </c>
       <c r="Q6">
-        <v>2.2204460492493478e-14</v>
+        <v>2.2204460492500398e-14</v>
       </c>
       <c r="R6">
-        <v>2.2204460492493478e-14</v>
+        <v>2.2204460492500398e-14</v>
       </c>
       <c r="S6">
-        <v>2.2204460492493478e-14</v>
+        <v>2.2204460492500398e-14</v>
       </c>
       <c r="T6">
-        <v>2.2204460492493478e-14</v>
+        <v>2.2204460492500398e-14</v>
       </c>
       <c r="U6">
-        <v>2.2204460492493478e-14</v>
+        <v>2.2204460492500398e-14</v>
       </c>
       <c r="V6">
         <v>9</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2.2204460492500493e-14</v>
+        <v>2.2204460492499808e-14</v>
       </c>
       <c r="C7">
-        <v>2.2204460492500493e-14</v>
+        <v>2.2204460492499808e-14</v>
       </c>
       <c r="D7">
-        <v>2.2204460492500493e-14</v>
+        <v>2.2204460492499808e-14</v>
       </c>
       <c r="E7">
-        <v>2.2204460492500493e-14</v>
+        <v>2.2204460492499808e-14</v>
       </c>
       <c r="F7">
-        <v>2.2204460492500493e-14</v>
+        <v>2.2204460492499808e-14</v>
       </c>
       <c r="G7">
-        <v>2.2204460492500493e-14</v>
+        <v>2.2204460492499808e-14</v>
       </c>
       <c r="H7">
-        <v>2.2204460492500493e-14</v>
+        <v>2.2204460492499808e-14</v>
       </c>
       <c r="I7">
-        <v>1.5727701329538921e-12</v>
+        <v>2.197245858415228e-12</v>
       </c>
       <c r="J7">
-        <v>0.99999999999802758</v>
+        <v>0.99999999999740319</v>
       </c>
       <c r="K7">
-        <v>2.2204460492500493e-14</v>
+        <v>2.2204460492499808e-14</v>
       </c>
       <c r="L7">
-        <v>2.2204460492500493e-14</v>
+        <v>2.2204460492499808e-14</v>
       </c>
       <c r="M7">
-        <v>2.2204460492500493e-14</v>
+        <v>2.2204460492499808e-14</v>
       </c>
       <c r="N7">
-        <v>2.2204460492500493e-14</v>
+        <v>2.2204460492499808e-14</v>
       </c>
       <c r="O7">
-        <v>2.2204460492500493e-14</v>
+        <v>2.2204460492499808e-14</v>
       </c>
       <c r="P7">
-        <v>2.2204460492500493e-14</v>
+        <v>2.2204460492499808e-14</v>
       </c>
       <c r="Q7">
-        <v>2.2204460492500493e-14</v>
+        <v>2.2204460492499808e-14</v>
       </c>
       <c r="R7">
-        <v>2.2204460492500493e-14</v>
+        <v>2.2204460492499808e-14</v>
       </c>
       <c r="S7">
-        <v>2.2204460492500493e-14</v>
+        <v>2.2204460492499808e-14</v>
       </c>
       <c r="T7">
-        <v>2.2204460492500493e-14</v>
+        <v>2.2204460492499808e-14</v>
       </c>
       <c r="U7">
-        <v>2.2204460492500493e-14</v>
+        <v>2.2204460492499808e-14</v>
       </c>
       <c r="V7">
         <v>9</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2.2201184680202937e-14</v>
+        <v>2.2204460492472621e-14</v>
       </c>
       <c r="C8">
-        <v>0.020400070863354818</v>
+        <v>2.2204460492472621e-14</v>
       </c>
       <c r="D8">
-        <v>2.2201184680202937e-14</v>
+        <v>2.2204460492472621e-14</v>
       </c>
       <c r="E8">
-        <v>2.2201184680202937e-14</v>
+        <v>2.2204460492472621e-14</v>
       </c>
       <c r="F8">
-        <v>2.2201184680202937e-14</v>
+        <v>2.2204460492472621e-14</v>
       </c>
       <c r="G8">
-        <v>2.2201184680202937e-14</v>
+        <v>2.2204460492472621e-14</v>
       </c>
       <c r="H8">
-        <v>2.2201184680202937e-14</v>
+        <v>2.2204460492472621e-14</v>
       </c>
       <c r="I8">
-        <v>4.2899252841530655e-11</v>
+        <v>2.667697784625695e-11</v>
       </c>
       <c r="J8">
-        <v>0.97959992909336846</v>
+        <v>0.99999999997292333</v>
       </c>
       <c r="K8">
-        <v>2.2201184680202937e-14</v>
+        <v>2.2204460492472621e-14</v>
       </c>
       <c r="L8">
-        <v>2.2201184680202937e-14</v>
+        <v>2.2204460492472621e-14</v>
       </c>
       <c r="M8">
-        <v>2.2201184680202937e-14</v>
+        <v>2.2204460492472621e-14</v>
       </c>
       <c r="N8">
-        <v>2.2201184680202937e-14</v>
+        <v>2.2204460492472621e-14</v>
       </c>
       <c r="O8">
-        <v>2.2201184680202937e-14</v>
+        <v>2.2204460492472621e-14</v>
       </c>
       <c r="P8">
-        <v>2.2201184680202937e-14</v>
+        <v>2.2204460492472621e-14</v>
       </c>
       <c r="Q8">
-        <v>2.2201184680202937e-14</v>
+        <v>2.2204460492472621e-14</v>
       </c>
       <c r="R8">
-        <v>2.2201184680202937e-14</v>
+        <v>2.2204460492472621e-14</v>
       </c>
       <c r="S8">
-        <v>2.2201184680202937e-14</v>
+        <v>2.2204460492472621e-14</v>
       </c>
       <c r="T8">
-        <v>2.2201184680202937e-14</v>
+        <v>2.2204460492472621e-14</v>
       </c>
       <c r="U8">
-        <v>2.2201184680202937e-14</v>
+        <v>2.2204460492472621e-14</v>
       </c>
       <c r="V8">
         <v>9</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2.2204460492489613e-14</v>
+        <v>2.2204460492498047e-14</v>
       </c>
       <c r="C9">
-        <v>2.2204460492489613e-14</v>
+        <v>2.2204460492498047e-14</v>
       </c>
       <c r="D9">
-        <v>2.2204460492489613e-14</v>
+        <v>2.2204460492498047e-14</v>
       </c>
       <c r="E9">
-        <v>2.2204460492489613e-14</v>
+        <v>2.2204460492498047e-14</v>
       </c>
       <c r="F9">
-        <v>2.2204460492489613e-14</v>
+        <v>2.2204460492498047e-14</v>
       </c>
       <c r="G9">
-        <v>2.2204460492489613e-14</v>
+        <v>2.2204460492498047e-14</v>
       </c>
       <c r="H9">
-        <v>2.2204460492489613e-14</v>
+        <v>2.2204460492498047e-14</v>
       </c>
       <c r="I9">
-        <v>1.1376813433272373e-11</v>
+        <v>3.77866407565482e-12</v>
       </c>
       <c r="J9">
-        <v>0.99999999998822353</v>
+        <v>0.99999999999582168</v>
       </c>
       <c r="K9">
-        <v>2.2204460492489613e-14</v>
+        <v>2.2204460492498047e-14</v>
       </c>
       <c r="L9">
-        <v>2.2204460492489613e-14</v>
+        <v>2.2204460492498047e-14</v>
       </c>
       <c r="M9">
-        <v>2.2204460492489613e-14</v>
+        <v>2.2204460492498047e-14</v>
       </c>
       <c r="N9">
-        <v>2.2204460492489613e-14</v>
+        <v>2.2204460492498047e-14</v>
       </c>
       <c r="O9">
-        <v>2.2204460492489613e-14</v>
+        <v>2.2204460492498047e-14</v>
       </c>
       <c r="P9">
-        <v>2.2204460492489613e-14</v>
+        <v>2.2204460492498047e-14</v>
       </c>
       <c r="Q9">
-        <v>2.2204460492489613e-14</v>
+        <v>2.2204460492498047e-14</v>
       </c>
       <c r="R9">
-        <v>2.2204460492489613e-14</v>
+        <v>2.2204460492498047e-14</v>
       </c>
       <c r="S9">
-        <v>2.2204460492489613e-14</v>
+        <v>2.2204460492498047e-14</v>
       </c>
       <c r="T9">
-        <v>2.2204460492489613e-14</v>
+        <v>2.2204460492498047e-14</v>
       </c>
       <c r="U9">
-        <v>2.2204460492489613e-14</v>
+        <v>2.2204460492498047e-14</v>
       </c>
       <c r="V9">
         <v>9</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2.2204460492484987e-14</v>
+        <v>2.22044604924893e-14</v>
       </c>
       <c r="C10">
-        <v>2.2204460492484987e-14</v>
+        <v>2.22044604924893e-14</v>
       </c>
       <c r="D10">
-        <v>2.2204460492484987e-14</v>
+        <v>2.22044604924893e-14</v>
       </c>
       <c r="E10">
-        <v>2.2204460492484987e-14</v>
+        <v>2.22044604924893e-14</v>
       </c>
       <c r="F10">
-        <v>2.2204460492484987e-14</v>
+        <v>2.22044604924893e-14</v>
       </c>
       <c r="G10">
-        <v>2.2204460492484987e-14</v>
+        <v>2.22044604924893e-14</v>
       </c>
       <c r="H10">
-        <v>2.2204460492484987e-14</v>
+        <v>2.22044604924893e-14</v>
       </c>
       <c r="I10">
-        <v>1.5538633595750739e-11</v>
+        <v>1.1656800679887955e-11</v>
       </c>
       <c r="J10">
-        <v>0.99999999998406164</v>
+        <v>0.99999999998794342</v>
       </c>
       <c r="K10">
-        <v>2.2204460492484987e-14</v>
+        <v>2.22044604924893e-14</v>
       </c>
       <c r="L10">
-        <v>2.2204460492484987e-14</v>
+        <v>2.22044604924893e-14</v>
       </c>
       <c r="M10">
-        <v>2.2204460492484987e-14</v>
+        <v>2.22044604924893e-14</v>
       </c>
       <c r="N10">
-        <v>2.2204460492484987e-14</v>
+        <v>2.22044604924893e-14</v>
       </c>
       <c r="O10">
-        <v>2.2204460492484987e-14</v>
+        <v>2.22044604924893e-14</v>
       </c>
       <c r="P10">
-        <v>2.2204460492484987e-14</v>
+        <v>2.22044604924893e-14</v>
       </c>
       <c r="Q10">
-        <v>2.2204460492484987e-14</v>
+        <v>2.22044604924893e-14</v>
       </c>
       <c r="R10">
-        <v>2.2204460492484987e-14</v>
+        <v>2.22044604924893e-14</v>
       </c>
       <c r="S10">
-        <v>2.2204460492484987e-14</v>
+        <v>2.22044604924893e-14</v>
       </c>
       <c r="T10">
-        <v>2.2204460492484987e-14</v>
+        <v>2.22044604924893e-14</v>
       </c>
       <c r="U10">
-        <v>2.2204460492484987e-14</v>
+        <v>2.22044604924893e-14</v>
       </c>
       <c r="V10">
         <v>9</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2.220446049249681e-14</v>
+        <v>2.2204460492500004e-14</v>
       </c>
       <c r="C11">
-        <v>2.220446049249681e-14</v>
+        <v>2.2204460492500004e-14</v>
       </c>
       <c r="D11">
-        <v>2.220446049249681e-14</v>
+        <v>2.2204460492500004e-14</v>
       </c>
       <c r="E11">
-        <v>2.220446049249681e-14</v>
+        <v>2.2204460492500004e-14</v>
       </c>
       <c r="F11">
-        <v>2.220446049249681e-14</v>
+        <v>2.2204460492500004e-14</v>
       </c>
       <c r="G11">
-        <v>2.220446049249681e-14</v>
+        <v>2.2204460492500004e-14</v>
       </c>
       <c r="H11">
-        <v>2.220446049249681e-14</v>
+        <v>2.2204460492500004e-14</v>
       </c>
       <c r="I11">
-        <v>4.8906551955227053e-12</v>
+        <v>2.0137697900163825e-12</v>
       </c>
       <c r="J11">
-        <v>0.99999999999470957</v>
+        <v>0.99999999999758671</v>
       </c>
       <c r="K11">
-        <v>2.220446049249681e-14</v>
+        <v>2.2204460492500004e-14</v>
       </c>
       <c r="L11">
-        <v>2.220446049249681e-14</v>
+        <v>2.2204460492500004e-14</v>
       </c>
       <c r="M11">
-        <v>2.220446049249681e-14</v>
+        <v>2.2204460492500004e-14</v>
       </c>
       <c r="N11">
-        <v>2.220446049249681e-14</v>
+        <v>2.2204460492500004e-14</v>
       </c>
       <c r="O11">
-        <v>2.220446049249681e-14</v>
+        <v>2.2204460492500004e-14</v>
       </c>
       <c r="P11">
-        <v>2.220446049249681e-14</v>
+        <v>2.2204460492500004e-14</v>
       </c>
       <c r="Q11">
-        <v>2.220446049249681e-14</v>
+        <v>2.2204460492500004e-14</v>
       </c>
       <c r="R11">
-        <v>2.220446049249681e-14</v>
+        <v>2.2204460492500004e-14</v>
       </c>
       <c r="S11">
-        <v>2.220446049249681e-14</v>
+        <v>2.2204460492500004e-14</v>
       </c>
       <c r="T11">
-        <v>2.220446049249681e-14</v>
+        <v>2.2204460492500004e-14</v>
       </c>
       <c r="U11">
-        <v>2.220446049249681e-14</v>
+        <v>2.2204460492500004e-14</v>
       </c>
       <c r="V11">
         <v>9</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>2.2204460492490717e-14</v>
+        <v>2.2204460492493847e-14</v>
       </c>
       <c r="C12">
-        <v>2.2204460492490717e-14</v>
+        <v>2.2204460492493847e-14</v>
       </c>
       <c r="D12">
-        <v>2.2204460492490717e-14</v>
+        <v>2.2204460492493847e-14</v>
       </c>
       <c r="E12">
-        <v>2.2204460492490717e-14</v>
+        <v>2.2204460492493847e-14</v>
       </c>
       <c r="F12">
-        <v>2.2204460492490717e-14</v>
+        <v>2.2204460492493847e-14</v>
       </c>
       <c r="G12">
-        <v>2.2204460492490717e-14</v>
+        <v>2.2204460492493847e-14</v>
       </c>
       <c r="H12">
-        <v>2.2204460492490717e-14</v>
+        <v>2.2204460492493847e-14</v>
       </c>
       <c r="I12">
-        <v>1.0376147032682784e-11</v>
+        <v>7.560866351909776e-12</v>
       </c>
       <c r="J12">
-        <v>0.99999999998922418</v>
+        <v>0.99999999999203948</v>
       </c>
       <c r="K12">
-        <v>2.2204460492490717e-14</v>
+        <v>2.2204460492493847e-14</v>
       </c>
       <c r="L12">
-        <v>2.2204460492490717e-14</v>
+        <v>2.2204460492493847e-14</v>
       </c>
       <c r="M12">
-        <v>2.2204460492490717e-14</v>
+        <v>2.2204460492493847e-14</v>
       </c>
       <c r="N12">
-        <v>2.2204460492490717e-14</v>
+        <v>2.2204460492493847e-14</v>
       </c>
       <c r="O12">
-        <v>2.2204460492490717e-14</v>
+        <v>2.2204460492493847e-14</v>
       </c>
       <c r="P12">
-        <v>2.2204460492490717e-14</v>
+        <v>2.2204460492493847e-14</v>
       </c>
       <c r="Q12">
-        <v>2.2204460492490717e-14</v>
+        <v>2.2204460492493847e-14</v>
       </c>
       <c r="R12">
-        <v>2.2204460492490717e-14</v>
+        <v>2.2204460492493847e-14</v>
       </c>
       <c r="S12">
-        <v>2.2204460492490717e-14</v>
+        <v>2.2204460492493847e-14</v>
       </c>
       <c r="T12">
-        <v>2.2204460492490717e-14</v>
+        <v>2.2204460492493847e-14</v>
       </c>
       <c r="U12">
-        <v>2.2204460492490717e-14</v>
+        <v>2.2204460492493847e-14</v>
       </c>
       <c r="V12">
         <v>9</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2.2204460492461599e-14</v>
+        <v>2.220118468010603e-14</v>
       </c>
       <c r="C13">
-        <v>2.2204460492461599e-14</v>
+        <v>0.020400070882379256</v>
       </c>
       <c r="D13">
-        <v>2.2204460492461599e-14</v>
+        <v>2.220118468010603e-14</v>
       </c>
       <c r="E13">
-        <v>2.2204460492461599e-14</v>
+        <v>2.220118468010603e-14</v>
       </c>
       <c r="F13">
-        <v>2.2204460492461599e-14</v>
+        <v>2.220118468010603e-14</v>
       </c>
       <c r="G13">
-        <v>2.2204460492461599e-14</v>
+        <v>2.220118468010603e-14</v>
       </c>
       <c r="H13">
-        <v>2.2204460492461599e-14</v>
+        <v>2.220118468010603e-14</v>
       </c>
       <c r="I13">
-        <v>3.6607601430915935e-11</v>
+        <v>1.4248647686548913e-11</v>
       </c>
       <c r="J13">
-        <v>0.99999999996299282</v>
+        <v>0.97959992910299476</v>
       </c>
       <c r="K13">
-        <v>2.2204460492461599e-14</v>
+        <v>2.220118468010603e-14</v>
       </c>
       <c r="L13">
-        <v>2.2204460492461599e-14</v>
+        <v>2.220118468010603e-14</v>
       </c>
       <c r="M13">
-        <v>2.2204460492461599e-14</v>
+        <v>2.220118468010603e-14</v>
       </c>
       <c r="N13">
-        <v>2.2204460492461599e-14</v>
+        <v>2.220118468010603e-14</v>
       </c>
       <c r="O13">
-        <v>2.2204460492461599e-14</v>
+        <v>2.220118468010603e-14</v>
       </c>
       <c r="P13">
-        <v>2.2204460492461599e-14</v>
+        <v>2.220118468010603e-14</v>
       </c>
       <c r="Q13">
-        <v>2.2204460492461599e-14</v>
+        <v>2.220118468010603e-14</v>
       </c>
       <c r="R13">
-        <v>2.2204460492461599e-14</v>
+        <v>2.220118468010603e-14</v>
       </c>
       <c r="S13">
-        <v>2.2204460492461599e-14</v>
+        <v>2.220118468010603e-14</v>
       </c>
       <c r="T13">
-        <v>2.2204460492461599e-14</v>
+        <v>2.220118468010603e-14</v>
       </c>
       <c r="U13">
-        <v>2.2204460492461599e-14</v>
+        <v>2.220118468010603e-14</v>
       </c>
       <c r="V13">
         <v>9</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>2.2204460492490175e-14</v>
+        <v>2.2204460492495223e-14</v>
       </c>
       <c r="C14">
-        <v>2.2204460492490175e-14</v>
+        <v>2.2204460492495223e-14</v>
       </c>
       <c r="D14">
-        <v>2.2204460492490175e-14</v>
+        <v>2.2204460492495223e-14</v>
       </c>
       <c r="E14">
-        <v>2.2204460492490175e-14</v>
+        <v>2.2204460492495223e-14</v>
       </c>
       <c r="F14">
-        <v>2.2204460492490175e-14</v>
+        <v>2.2204460492495223e-14</v>
       </c>
       <c r="G14">
-        <v>2.2204460492490175e-14</v>
+        <v>2.2204460492495223e-14</v>
       </c>
       <c r="H14">
-        <v>2.2204460492490175e-14</v>
+        <v>2.2204460492495223e-14</v>
       </c>
       <c r="I14">
-        <v>1.0867395923880046e-11</v>
+        <v>6.3236426018243014e-12</v>
       </c>
       <c r="J14">
-        <v>0.9999999999887329</v>
+        <v>0.99999999999327671</v>
       </c>
       <c r="K14">
-        <v>2.2204460492490175e-14</v>
+        <v>2.2204460492495223e-14</v>
       </c>
       <c r="L14">
-        <v>2.2204460492490175e-14</v>
+        <v>2.2204460492495223e-14</v>
       </c>
       <c r="M14">
-        <v>2.2204460492490175e-14</v>
+        <v>2.2204460492495223e-14</v>
       </c>
       <c r="N14">
-        <v>2.2204460492490175e-14</v>
+        <v>2.2204460492495223e-14</v>
       </c>
       <c r="O14">
-        <v>2.2204460492490175e-14</v>
+        <v>2.2204460492495223e-14</v>
       </c>
       <c r="P14">
-        <v>2.2204460492490175e-14</v>
+        <v>2.2204460492495223e-14</v>
       </c>
       <c r="Q14">
-        <v>2.2204460492490175e-14</v>
+        <v>2.2204460492495223e-14</v>
       </c>
       <c r="R14">
-        <v>2.2204460492490175e-14</v>
+        <v>2.2204460492495223e-14</v>
       </c>
       <c r="S14">
-        <v>2.2204460492490175e-14</v>
+        <v>2.2204460492495223e-14</v>
       </c>
       <c r="T14">
-        <v>2.2204460492490175e-14</v>
+        <v>2.2204460492495223e-14</v>
       </c>
       <c r="U14">
-        <v>2.2204460492490175e-14</v>
+        <v>2.2204460492495223e-14</v>
       </c>
       <c r="V14">
         <v>9</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>2.2204460492490266e-14</v>
+        <v>2.2204460492494232e-14</v>
       </c>
       <c r="C15">
-        <v>2.2204460492490266e-14</v>
+        <v>2.2204460492494232e-14</v>
       </c>
       <c r="D15">
-        <v>2.2204460492490266e-14</v>
+        <v>2.2204460492494232e-14</v>
       </c>
       <c r="E15">
-        <v>2.2204460492490266e-14</v>
+        <v>2.2204460492494232e-14</v>
       </c>
       <c r="F15">
-        <v>2.2204460492490266e-14</v>
+        <v>2.2204460492494232e-14</v>
       </c>
       <c r="G15">
-        <v>2.2204460492490266e-14</v>
+        <v>2.2204460492494232e-14</v>
       </c>
       <c r="H15">
-        <v>2.2204460492490266e-14</v>
+        <v>2.2204460492494232e-14</v>
       </c>
       <c r="I15">
-        <v>1.0784365310681887e-11</v>
+        <v>7.2109135913846967e-12</v>
       </c>
       <c r="J15">
-        <v>0.99999999998881606</v>
+        <v>0.99999999999238931</v>
       </c>
       <c r="K15">
-        <v>2.2204460492490266e-14</v>
+        <v>2.2204460492494232e-14</v>
       </c>
       <c r="L15">
-        <v>2.2204460492490266e-14</v>
+        <v>2.2204460492494232e-14</v>
       </c>
       <c r="M15">
-        <v>2.2204460492490266e-14</v>
+        <v>2.2204460492494232e-14</v>
       </c>
       <c r="N15">
-        <v>2.2204460492490266e-14</v>
+        <v>2.2204460492494232e-14</v>
       </c>
       <c r="O15">
-        <v>2.2204460492490266e-14</v>
+        <v>2.2204460492494232e-14</v>
       </c>
       <c r="P15">
-        <v>2.2204460492490266e-14</v>
+        <v>2.2204460492494232e-14</v>
       </c>
       <c r="Q15">
-        <v>2.2204460492490266e-14</v>
+        <v>2.2204460492494232e-14</v>
       </c>
       <c r="R15">
-        <v>2.2204460492490266e-14</v>
+        <v>2.2204460492494232e-14</v>
       </c>
       <c r="S15">
-        <v>2.2204460492490266e-14</v>
+        <v>2.2204460492494232e-14</v>
       </c>
       <c r="T15">
-        <v>2.2204460492490266e-14</v>
+        <v>2.2204460492494232e-14</v>
       </c>
       <c r="U15">
-        <v>2.2204460492490266e-14</v>
+        <v>2.2204460492494232e-14</v>
       </c>
       <c r="V15">
         <v>9</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>2.2204460492494453e-14</v>
+        <v>2.2204460492499423e-14</v>
       </c>
       <c r="C16">
-        <v>2.2204460492494453e-14</v>
+        <v>2.2204460492499423e-14</v>
       </c>
       <c r="D16">
-        <v>2.2204460492494453e-14</v>
+        <v>2.2204460492499423e-14</v>
       </c>
       <c r="E16">
-        <v>2.2204460492494453e-14</v>
+        <v>2.2204460492499423e-14</v>
       </c>
       <c r="F16">
-        <v>2.2204460492494453e-14</v>
+        <v>2.2204460492499423e-14</v>
       </c>
       <c r="G16">
-        <v>2.2204460492494453e-14</v>
+        <v>2.2204460492499423e-14</v>
       </c>
       <c r="H16">
-        <v>2.2204460492494453e-14</v>
+        <v>2.2204460492499423e-14</v>
       </c>
       <c r="I16">
-        <v>7.013494565811162e-12</v>
+        <v>2.5360378460410814e-12</v>
       </c>
       <c r="J16">
-        <v>0.99999999999258693</v>
+        <v>0.99999999999706435</v>
       </c>
       <c r="K16">
-        <v>2.2204460492494453e-14</v>
+        <v>2.2204460492499423e-14</v>
       </c>
       <c r="L16">
-        <v>2.2204460492494453e-14</v>
+        <v>2.2204460492499423e-14</v>
       </c>
       <c r="M16">
-        <v>2.2204460492494453e-14</v>
+        <v>2.2204460492499423e-14</v>
       </c>
       <c r="N16">
-        <v>2.2204460492494453e-14</v>
+        <v>2.2204460492499423e-14</v>
       </c>
       <c r="O16">
-        <v>2.2204460492494453e-14</v>
+        <v>2.2204460492499423e-14</v>
       </c>
       <c r="P16">
-        <v>2.2204460492494453e-14</v>
+        <v>2.2204460492499423e-14</v>
       </c>
       <c r="Q16">
-        <v>2.2204460492494453e-14</v>
+        <v>2.2204460492499423e-14</v>
       </c>
       <c r="R16">
-        <v>2.2204460492494453e-14</v>
+        <v>2.2204460492499423e-14</v>
       </c>
       <c r="S16">
-        <v>2.2204460492494453e-14</v>
+        <v>2.2204460492499423e-14</v>
       </c>
       <c r="T16">
-        <v>2.2204460492494453e-14</v>
+        <v>2.2204460492499423e-14</v>
       </c>
       <c r="U16">
-        <v>2.2204460492494453e-14</v>
+        <v>2.2204460492499423e-14</v>
       </c>
       <c r="V16">
         <v>9</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>2.2204460492456266e-14</v>
+        <v>2.220446049248942e-14</v>
       </c>
       <c r="C17">
-        <v>2.2204460492456266e-14</v>
+        <v>2.220446049248942e-14</v>
       </c>
       <c r="D17">
-        <v>2.2204460492456266e-14</v>
+        <v>2.220446049248942e-14</v>
       </c>
       <c r="E17">
-        <v>2.2204460492456266e-14</v>
+        <v>2.220446049248942e-14</v>
       </c>
       <c r="F17">
-        <v>2.2204460492456266e-14</v>
+        <v>2.220446049248942e-14</v>
       </c>
       <c r="G17">
-        <v>2.2204460492456266e-14</v>
+        <v>2.220446049248942e-14</v>
       </c>
       <c r="H17">
-        <v>2.2204460492456266e-14</v>
+        <v>2.220446049248942e-14</v>
       </c>
       <c r="I17">
-        <v>4.1410705304838502e-11</v>
+        <v>1.1543249179222207e-11</v>
       </c>
       <c r="J17">
-        <v>0.99999999995818967</v>
+        <v>0.999999999988057</v>
       </c>
       <c r="K17">
-        <v>2.2204460492456266e-14</v>
+        <v>2.220446049248942e-14</v>
       </c>
       <c r="L17">
-        <v>2.2204460492456266e-14</v>
+        <v>2.220446049248942e-14</v>
       </c>
       <c r="M17">
-        <v>2.2204460492456266e-14</v>
+        <v>2.220446049248942e-14</v>
       </c>
       <c r="N17">
-        <v>2.2204460492456266e-14</v>
+        <v>2.220446049248942e-14</v>
       </c>
       <c r="O17">
-        <v>2.2204460492456266e-14</v>
+        <v>2.220446049248942e-14</v>
       </c>
       <c r="P17">
-        <v>2.2204460492456266e-14</v>
+        <v>2.220446049248942e-14</v>
       </c>
       <c r="Q17">
-        <v>2.2204460492456266e-14</v>
+        <v>2.220446049248942e-14</v>
       </c>
       <c r="R17">
-        <v>2.2204460492456266e-14</v>
+        <v>2.220446049248942e-14</v>
       </c>
       <c r="S17">
-        <v>2.2204460492456266e-14</v>
+        <v>2.220446049248942e-14</v>
       </c>
       <c r="T17">
-        <v>2.2204460492456266e-14</v>
+        <v>2.220446049248942e-14</v>
       </c>
       <c r="U17">
-        <v>2.2204460492456266e-14</v>
+        <v>2.220446049248942e-14</v>
       </c>
       <c r="V17">
         <v>9</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>2.2204460492497208e-14</v>
+        <v>2.2204460492495848e-14</v>
       </c>
       <c r="C18">
-        <v>2.2204460492497208e-14</v>
+        <v>2.2204460492495848e-14</v>
       </c>
       <c r="D18">
-        <v>2.2204460492497208e-14</v>
+        <v>2.2204460492495848e-14</v>
       </c>
       <c r="E18">
-        <v>2.2204460492497208e-14</v>
+        <v>2.2204460492495848e-14</v>
       </c>
       <c r="F18">
-        <v>2.2204460492497208e-14</v>
+        <v>2.2204460492495848e-14</v>
       </c>
       <c r="G18">
-        <v>2.2204460492497208e-14</v>
+        <v>2.2204460492495848e-14</v>
       </c>
       <c r="H18">
-        <v>2.2204460492497208e-14</v>
+        <v>2.2204460492495848e-14</v>
       </c>
       <c r="I18">
-        <v>4.5310042921840221e-12</v>
+        <v>5.750534807168283e-12</v>
       </c>
       <c r="J18">
-        <v>0.99999999999506928</v>
+        <v>0.9999999999938497</v>
       </c>
       <c r="K18">
-        <v>2.2204460492497208e-14</v>
+        <v>2.2204460492495848e-14</v>
       </c>
       <c r="L18">
-        <v>2.2204460492497208e-14</v>
+        <v>2.2204460492495848e-14</v>
       </c>
       <c r="M18">
-        <v>2.2204460492497208e-14</v>
+        <v>2.2204460492495848e-14</v>
       </c>
       <c r="N18">
-        <v>2.2204460492497208e-14</v>
+        <v>2.2204460492495848e-14</v>
       </c>
       <c r="O18">
-        <v>2.2204460492497208e-14</v>
+        <v>2.2204460492495848e-14</v>
       </c>
       <c r="P18">
-        <v>2.2204460492497208e-14</v>
+        <v>2.2204460492495848e-14</v>
       </c>
       <c r="Q18">
-        <v>2.2204460492497208e-14</v>
+        <v>2.2204460492495848e-14</v>
       </c>
       <c r="R18">
-        <v>2.2204460492497208e-14</v>
+        <v>2.2204460492495848e-14</v>
       </c>
       <c r="S18">
-        <v>2.2204460492497208e-14</v>
+        <v>2.2204460492495848e-14</v>
       </c>
       <c r="T18">
-        <v>2.2204460492497208e-14</v>
+        <v>2.2204460492495848e-14</v>
       </c>
       <c r="U18">
-        <v>2.2204460492497208e-14</v>
+        <v>2.2204460492495848e-14</v>
       </c>
       <c r="V18">
         <v>9</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>2.2204460492482964e-14</v>
+        <v>2.2204460492477613e-14</v>
       </c>
       <c r="C19">
-        <v>2.2204460492482964e-14</v>
+        <v>2.2204460492477613e-14</v>
       </c>
       <c r="D19">
-        <v>2.2204460492482964e-14</v>
+        <v>2.2204460492477613e-14</v>
       </c>
       <c r="E19">
-        <v>2.2204460492482964e-14</v>
+        <v>2.2204460492477613e-14</v>
       </c>
       <c r="F19">
-        <v>2.2204460492482964e-14</v>
+        <v>2.2204460492477613e-14</v>
       </c>
       <c r="G19">
-        <v>2.2204460492482964e-14</v>
+        <v>2.2204460492477613e-14</v>
       </c>
       <c r="H19">
-        <v>2.2204460492482964e-14</v>
+        <v>2.2204460492477613e-14</v>
       </c>
       <c r="I19">
-        <v>1.7359056347220038e-11</v>
+        <v>2.2186826290715783e-11</v>
       </c>
       <c r="J19">
-        <v>0.99999999998224132</v>
+        <v>0.9999999999774134</v>
       </c>
       <c r="K19">
-        <v>2.2204460492482964e-14</v>
+        <v>2.2204460492477613e-14</v>
       </c>
       <c r="L19">
-        <v>2.2204460492482964e-14</v>
+        <v>2.2204460492477613e-14</v>
       </c>
       <c r="M19">
-        <v>2.2204460492482964e-14</v>
+        <v>2.2204460492477613e-14</v>
       </c>
       <c r="N19">
-        <v>2.2204460492482964e-14</v>
+        <v>2.2204460492477613e-14</v>
       </c>
       <c r="O19">
-        <v>2.2204460492482964e-14</v>
+        <v>2.2204460492477613e-14</v>
       </c>
       <c r="P19">
-        <v>2.2204460492482964e-14</v>
+        <v>2.2204460492477613e-14</v>
       </c>
       <c r="Q19">
-        <v>2.2204460492482964e-14</v>
+        <v>2.2204460492477613e-14</v>
       </c>
       <c r="R19">
-        <v>2.2204460492482964e-14</v>
+        <v>2.2204460492477613e-14</v>
       </c>
       <c r="S19">
-        <v>2.2204460492482964e-14</v>
+        <v>2.2204460492477613e-14</v>
       </c>
       <c r="T19">
-        <v>2.2204460492482964e-14</v>
+        <v>2.2204460492477613e-14</v>
       </c>
       <c r="U19">
-        <v>2.2204460492482964e-14</v>
+        <v>2.2204460492477613e-14</v>
       </c>
       <c r="V19">
         <v>9</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>2.2204460492494987e-14</v>
+        <v>2.220446049249563e-14</v>
       </c>
       <c r="C20">
-        <v>2.2204460492494987e-14</v>
+        <v>2.220446049249563e-14</v>
       </c>
       <c r="D20">
-        <v>2.2204460492494987e-14</v>
+        <v>2.220446049249563e-14</v>
       </c>
       <c r="E20">
-        <v>2.2204460492494987e-14</v>
+        <v>2.220446049249563e-14</v>
       </c>
       <c r="F20">
-        <v>2.2204460492494987e-14</v>
+        <v>2.220446049249563e-14</v>
       </c>
       <c r="G20">
-        <v>2.2204460492494987e-14</v>
+        <v>2.220446049249563e-14</v>
       </c>
       <c r="H20">
-        <v>2.2204460492494987e-14</v>
+        <v>2.220446049249563e-14</v>
       </c>
       <c r="I20">
-        <v>6.5354095682126895e-12</v>
+        <v>5.9459848408021749e-12</v>
       </c>
       <c r="J20">
-        <v>0.99999999999306488</v>
+        <v>0.9999999999936543</v>
       </c>
       <c r="K20">
-        <v>2.2204460492494987e-14</v>
+        <v>2.220446049249563e-14</v>
       </c>
       <c r="L20">
-        <v>2.2204460492494987e-14</v>
+        <v>2.220446049249563e-14</v>
       </c>
       <c r="M20">
-        <v>2.2204460492494987e-14</v>
+        <v>2.220446049249563e-14</v>
       </c>
       <c r="N20">
-        <v>2.2204460492494987e-14</v>
+        <v>2.220446049249563e-14</v>
       </c>
       <c r="O20">
-        <v>2.2204460492494987e-14</v>
+        <v>2.220446049249563e-14</v>
       </c>
       <c r="P20">
-        <v>2.2204460492494987e-14</v>
+        <v>2.220446049249563e-14</v>
       </c>
       <c r="Q20">
-        <v>2.2204460492494987e-14</v>
+        <v>2.220446049249563e-14</v>
       </c>
       <c r="R20">
-        <v>2.2204460492494987e-14</v>
+        <v>2.220446049249563e-14</v>
       </c>
       <c r="S20">
-        <v>2.2204460492494987e-14</v>
+        <v>2.220446049249563e-14</v>
       </c>
       <c r="T20">
-        <v>2.2204460492494987e-14</v>
+        <v>2.220446049249563e-14</v>
       </c>
       <c r="U20">
-        <v>2.2204460492494987e-14</v>
+        <v>2.220446049249563e-14</v>
       </c>
       <c r="V20">
         <v>9</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B21">
-        <v>2.2204460492390939e-14</v>
+        <v>2.220446049245353e-14</v>
       </c>
       <c r="C21">
-        <v>2.2204460492390939e-14</v>
+        <v>2.220446049245353e-14</v>
       </c>
       <c r="D21">
-        <v>2.2204460492390939e-14</v>
+        <v>2.220446049245353e-14</v>
       </c>
       <c r="E21">
-        <v>2.2204460492390939e-14</v>
+        <v>2.220446049245353e-14</v>
       </c>
       <c r="F21">
-        <v>2.2204460492390939e-14</v>
+        <v>2.220446049245353e-14</v>
       </c>
       <c r="G21">
-        <v>2.2204460492390939e-14</v>
+        <v>2.220446049245353e-14</v>
       </c>
       <c r="H21">
-        <v>2.2204460492390939e-14</v>
+        <v>2.220446049245353e-14</v>
       </c>
       <c r="I21">
-        <v>1.0024998513722325e-10</v>
+        <v>4.3871304832176062e-11</v>
       </c>
       <c r="J21">
-        <v>0.99999999989935029</v>
+        <v>0.99999999995572897</v>
       </c>
       <c r="K21">
-        <v>2.2204460492390939e-14</v>
+        <v>2.220446049245353e-14</v>
       </c>
       <c r="L21">
-        <v>2.2204460492390939e-14</v>
+        <v>2.220446049245353e-14</v>
       </c>
       <c r="M21">
-        <v>2.2204460492390939e-14</v>
+        <v>2.220446049245353e-14</v>
       </c>
       <c r="N21">
-        <v>2.2204460492390939e-14</v>
+        <v>2.220446049245353e-14</v>
       </c>
       <c r="O21">
-        <v>2.2204460492390939e-14</v>
+        <v>2.220446049245353e-14</v>
       </c>
       <c r="P21">
-        <v>2.2204460492390939e-14</v>
+        <v>2.220446049245353e-14</v>
       </c>
       <c r="Q21">
-        <v>2.2204460492390939e-14</v>
+        <v>2.220446049245353e-14</v>
       </c>
       <c r="R21">
-        <v>2.2204460492390939e-14</v>
+        <v>2.220446049245353e-14</v>
       </c>
       <c r="S21">
-        <v>2.2204460492390939e-14</v>
+        <v>2.220446049245353e-14</v>
       </c>
       <c r="T21">
-        <v>2.2204460492390939e-14</v>
+        <v>2.220446049245353e-14</v>
       </c>
       <c r="U21">
-        <v>2.2204460492390939e-14</v>
+        <v>2.220446049245353e-14</v>
       </c>
       <c r="V21">
         <v>9</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>2.2204460492493027e-14</v>
+        <v>2.2204460492495908e-14</v>
       </c>
       <c r="C22">
-        <v>2.2204460492493027e-14</v>
+        <v>2.2204460492495908e-14</v>
       </c>
       <c r="D22">
-        <v>2.2204460492493027e-14</v>
+        <v>2.2204460492495908e-14</v>
       </c>
       <c r="E22">
-        <v>2.2204460492493027e-14</v>
+        <v>2.2204460492495908e-14</v>
       </c>
       <c r="F22">
-        <v>2.2204460492493027e-14</v>
+        <v>2.2204460492495908e-14</v>
       </c>
       <c r="G22">
-        <v>2.2204460492493027e-14</v>
+        <v>2.2204460492495908e-14</v>
       </c>
       <c r="H22">
-        <v>2.2204460492493027e-14</v>
+        <v>2.2204460492495908e-14</v>
       </c>
       <c r="I22">
-        <v>8.2934103792485124e-12</v>
+        <v>5.7038632086569881e-12</v>
       </c>
       <c r="J22">
-        <v>0.99999999999130684</v>
+        <v>0.99999999999389644</v>
       </c>
       <c r="K22">
-        <v>2.2204460492493027e-14</v>
+        <v>2.2204460492495908e-14</v>
       </c>
       <c r="L22">
-        <v>2.2204460492493027e-14</v>
+        <v>2.2204460492495908e-14</v>
       </c>
       <c r="M22">
-        <v>2.2204460492493027e-14</v>
+        <v>2.2204460492495908e-14</v>
       </c>
       <c r="N22">
-        <v>2.2204460492493027e-14</v>
+        <v>2.2204460492495908e-14</v>
       </c>
       <c r="O22">
-        <v>2.2204460492493027e-14</v>
+        <v>2.2204460492495908e-14</v>
       </c>
       <c r="P22">
-        <v>2.2204460492493027e-14</v>
+        <v>2.2204460492495908e-14</v>
       </c>
       <c r="Q22">
-        <v>2.2204460492493027e-14</v>
+        <v>2.2204460492495908e-14</v>
       </c>
       <c r="R22">
-        <v>2.2204460492493027e-14</v>
+        <v>2.2204460492495908e-14</v>
       </c>
       <c r="S22">
-        <v>2.2204460492493027e-14</v>
+        <v>2.2204460492495908e-14</v>
       </c>
       <c r="T22">
-        <v>2.2204460492493027e-14</v>
+        <v>2.2204460492495908e-14</v>
       </c>
       <c r="U22">
-        <v>2.2204460492493027e-14</v>
+        <v>2.2204460492495908e-14</v>
       </c>
       <c r="V22">
         <v>9</v>
